--- a/Email_List.xlsx
+++ b/Email_List.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M_Ash\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOCUMENT\py4e\Ubuntu\git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0ED9FBA1-2D6B-4693-ACB9-5C57C7BA0695}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D7C5DB-9393-4961-AB60-54C045310907}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{8C432C82-8B12-47DB-B441-F973253E517C}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9072" xr2:uid="{8C432C82-8B12-47DB-B441-F973253E517C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -423,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B943263F-DF88-46A9-8271-83BB256CDE05}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -479,6 +479,9 @@
         <v>11</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{E131C959-C76A-418A-9F57-321244FCC128}"/>
